--- a/Documentation/Parts and Interfaces.xlsx
+++ b/Documentation/Parts and Interfaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1665327d39aac92f/Documents/GitHub/NearHigher/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_F25DC773A252ABDACC104878415942945BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{934B030D-8532-4ABE-A479-47DFD55B6678}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC104878415942945BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4BEA13-D901-4BFE-823C-5C49B6959438}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Component</t>
   </si>
@@ -57,19 +57,31 @@
     <t>T02L</t>
   </si>
   <si>
-    <t>T02M, FIN1-3, LBK, TR</t>
-  </si>
-  <si>
     <t>OD/ID (cm)</t>
   </si>
   <si>
     <t>8.62/8.23</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>ASB</t>
+  </si>
+  <si>
+    <t>Avionics, BLK</t>
+  </si>
+  <si>
+    <t>T02M, FINB1-3, APKB, TRB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,6 +264,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -574,7 +589,9 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>144.80000000000001</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
@@ -582,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -590,7 +607,9 @@
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="11">
+        <v>78</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
@@ -598,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -608,29 +627,45 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="11">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
+        <v>95.7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
